--- a/medicine/Mort/Herecura/Herecura.xlsx
+++ b/medicine/Mort/Herecura/Herecura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Erecura (également attestés : Herecura, Aerecura, Eracura[1]) est une déesse liée au monde des enfers que l'on dit d'origine celtique.  La déesse, par ses attributs est liée à la fois à Proserpine, à Junon et aux dieux Dis Pater et Sylvanus.
+Erecura (également attestés : Herecura, Aerecura, Eracura) est une déesse liée au monde des enfers que l'on dit d'origine celtique.  La déesse, par ses attributs est liée à la fois à Proserpine, à Junon et aux dieux Dis Pater et Sylvanus.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sources qui l'identifient sont de nature épigraphique et datent principalement de la période de l'Empire romain. Un grand nombre de représentations a été retrouvé dans la région du Danube, dans le sud de l'Allemagne et en Slovénie. Il existe cependant des traces en Italie, Grande-Bretagne, France et Algérie notamment. Les inscriptions sont concentrées à Stuttgart et le long du Rhin.
 En fonction des régions, des époques et des scribes, il existe différentes façons d'écrire le nom de la déesse. Ici une liste plus ou moins exhaustive des noms, avec les plus rares entre parenthèses : Aeracura, Herecura, Aericura, Aera Cura (Eracura, Heracura, Aerecura, Erecura, Hericura, Aeraecura).
-Une divinité male du nom d'Arecurius ou Aericurus a été identifié sur une autel dans le Northumberland en Angleterre[2].
+Une divinité male du nom d'Arecurius ou Aericurus a été identifié sur une autel dans le Northumberland en Angleterre.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce théonyme est d'origine incertaines. Cela a été mis en lien avec le latin aes, aeris (« cuivre, bronze, argent, richesse »), era (« aimante ») et le nom de la déesse grecque Hera[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce théonyme est d'origine incertaines. Cela a été mis en lien avec le latin aes, aeris (« cuivre, bronze, argent, richesse »), era (« aimante ») et le nom de la déesse grecque Hera.
 </t>
         </is>
       </c>
